--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/本年应交增值税.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/本年应交增值税.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>33.07402</v>
-      </c>
-      <c r="C2" t="n">
-        <v>149.53842</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.618499999999999</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.01663</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.91062</v>
-      </c>
-      <c r="G2" t="n">
-        <v>111.40509</v>
-      </c>
-      <c r="H2" t="n">
-        <v>27.14522</v>
-      </c>
-      <c r="I2" t="n">
-        <v>60.6592</v>
-      </c>
-      <c r="J2" t="n">
-        <v>15.00146</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2320.36</v>
-      </c>
-      <c r="L2" t="n">
-        <v>7.60413</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.94026</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.92961</v>
-      </c>
-      <c r="O2" t="n">
-        <v>55.73644</v>
-      </c>
-      <c r="P2" t="n">
-        <v>59.1879</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>8.580629999999999</v>
-      </c>
-      <c r="R2" t="n">
-        <v>3.39953</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5.0339</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.5775</v>
-      </c>
-      <c r="U2" t="n">
-        <v>10.61964</v>
-      </c>
-      <c r="V2" t="n">
-        <v>142.29153</v>
-      </c>
-      <c r="W2" t="n">
-        <v>6.47418</v>
-      </c>
-      <c r="X2" t="n">
-        <v>86.19887</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>471.82479</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>70.01615</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>40.02841</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1.29441</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>106.48117</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>292.43339</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>69.93015</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>16.78667</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>23.48039</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>11.97875</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>67.73318</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>9.076090000000001</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>20.5202</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>33.47588</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>61.18808</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>217.96963</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>4.00427</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>33.09781</v>
-      </c>
-      <c r="C3" t="n">
-        <v>172.61602</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.12847</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.008750000000000001</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.19607</v>
-      </c>
-      <c r="G3" t="n">
-        <v>117.13976</v>
-      </c>
-      <c r="H3" t="n">
-        <v>18.08434</v>
-      </c>
-      <c r="I3" t="n">
-        <v>64.03033000000001</v>
-      </c>
-      <c r="J3" t="n">
-        <v>16.74674</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2408.97</v>
-      </c>
-      <c r="L3" t="n">
-        <v>9.23793</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.89316</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.15497</v>
-      </c>
-      <c r="O3" t="n">
-        <v>56.56502</v>
-      </c>
-      <c r="P3" t="n">
-        <v>53.25364</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>7.20889</v>
-      </c>
-      <c r="R3" t="n">
-        <v>3.32602</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4.99142</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.0117</v>
-      </c>
-      <c r="U3" t="n">
-        <v>12.08446</v>
-      </c>
-      <c r="V3" t="n">
-        <v>175.85209</v>
-      </c>
-      <c r="W3" t="n">
-        <v>7.61554</v>
-      </c>
-      <c r="X3" t="n">
-        <v>109.52967</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>508.64478</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>79.72633</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>38.20048</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1.50218</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>134.56094</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>235.59082</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>58.19955</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>16.99313</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>24.83108</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>13.81851</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>61.54877</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>9.136369999999999</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>20.13765</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>29.75405</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>59.00832</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>232.3472</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>4.73765</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>35.84092</v>
-      </c>
-      <c r="C4" t="n">
-        <v>217.07283</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.677110000000001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.01467</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.73263</v>
-      </c>
-      <c r="G4" t="n">
-        <v>120.13322</v>
-      </c>
-      <c r="H4" t="n">
-        <v>17.07367</v>
-      </c>
-      <c r="I4" t="n">
-        <v>66.05265</v>
-      </c>
-      <c r="J4" t="n">
-        <v>16.69035</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2580.51</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8.84169</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.67967</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.68972</v>
-      </c>
-      <c r="O4" t="n">
-        <v>64.61999</v>
-      </c>
-      <c r="P4" t="n">
-        <v>50.31238</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>7.55806</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.52158</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4.77033</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.47081</v>
-      </c>
-      <c r="U4" t="n">
-        <v>11.68887</v>
-      </c>
-      <c r="V4" t="n">
-        <v>209.31902</v>
-      </c>
-      <c r="W4" t="n">
-        <v>8.358650000000001</v>
-      </c>
-      <c r="X4" t="n">
-        <v>126.81618</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>577.10843</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>58.73171</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>37.46124</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1.19902</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>145.80925</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>218.02255</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>49.74085</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>17.155</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>27.28339</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>12.90863</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>62.37838</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>9.297140000000001</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>17.60302</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>24.55897</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>60.19933</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>269.7271</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>5.71168</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
